--- a/database/KNN/Surf_knn.xlsx
+++ b/database/KNN/Surf_knn.xlsx
@@ -117,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +129,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,9 +162,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="O17" sqref="E17:O18"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -508,40 +517,40 @@
       <c r="C4">
         <v>5.1930000782012904</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>0.5</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <v>0.6</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>0.65</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <v>0.7</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="2">
         <v>0.75</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="2">
         <v>0.8</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="2">
         <v>0.85</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="2">
         <v>0.9</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="2">
         <v>0.95</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -555,7 +564,7 @@
       <c r="C5">
         <v>7.36700010299682</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="L5">
@@ -602,7 +611,7 @@
       <c r="C6">
         <v>6.9270000457763601</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L6">
@@ -649,7 +658,7 @@
       <c r="C7">
         <v>0.99399995803832997</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L7">
@@ -696,7 +705,7 @@
       <c r="C8">
         <v>14.891999959945601</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="L8">
@@ -743,7 +752,7 @@
       <c r="C9">
         <v>4.3539998531341499</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L9">
@@ -790,7 +799,7 @@
       <c r="C10">
         <v>0.64100003242492598</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L10">
@@ -837,7 +846,7 @@
       <c r="C11">
         <v>5.0169999599456698</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L11">
@@ -884,7 +893,7 @@
       <c r="C12">
         <v>0.720999956130981</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L12">
@@ -931,7 +940,7 @@
       <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L13">
@@ -978,7 +987,7 @@
       <c r="C14">
         <v>7.4480001926422101</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="L14">
